--- a/calibration_sheet.xlsx
+++ b/calibration_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeremyNoonan\Documents\github\massey_3545_hitch_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDFB716-3AC2-435B-A1A2-2C0F37A89AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152410F-8917-4DEC-981A-C66E3DAEE5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17023" yWindow="0" windowWidth="15891" windowHeight="20571" xr2:uid="{0D881AED-880D-4F73-AA28-7B0266F46ED7}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F389ED4-3E5B-4518-8BA6-57C13E54178F}">
   <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -405,7 +427,7 @@
     <col min="2" max="2" width="16.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,15 +435,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>120</v>
       </c>
       <c r="B2">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.UNIQUE(B2:C107157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>119</v>
       </c>
@@ -429,7 +455,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>118</v>
       </c>
@@ -437,7 +463,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>117</v>
       </c>
@@ -445,7 +471,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>116</v>
       </c>
@@ -453,7 +479,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>115</v>
       </c>
@@ -461,7 +487,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>114</v>
       </c>
@@ -469,7 +495,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>113</v>
       </c>
@@ -477,7 +503,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>112</v>
       </c>
@@ -485,7 +511,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>111</v>
       </c>
@@ -493,7 +519,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>110</v>
       </c>
@@ -501,7 +527,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>109</v>
       </c>
@@ -509,7 +535,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>108</v>
       </c>
@@ -517,7 +543,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>107</v>
       </c>
@@ -525,7 +551,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
@@ -1173,7 +1199,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>25</v>
       </c>
@@ -1181,7 +1207,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>24</v>
       </c>
@@ -1189,7 +1215,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>23</v>
       </c>
@@ -1197,7 +1223,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>22</v>
       </c>
@@ -1205,7 +1231,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>21</v>
       </c>
@@ -1213,7 +1239,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>20</v>
       </c>
@@ -1221,7 +1247,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>19</v>
       </c>
@@ -1229,7 +1255,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>18</v>
       </c>
@@ -1237,7 +1263,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>17</v>
       </c>
@@ -1245,7 +1271,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>16</v>
       </c>
@@ -1253,18 +1279,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>15</v>
       </c>
       <c r="B107">
         <v>409</v>
       </c>
-      <c r="C107">
-        <v>-409</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>14</v>
       </c>
@@ -1272,7 +1295,7 @@
         <v>-409</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>13</v>
       </c>
@@ -1280,7 +1303,7 @@
         <v>-408</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>12</v>
       </c>
@@ -1288,7 +1311,7 @@
         <v>-407</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>11</v>
       </c>
@@ -1296,7 +1319,7 @@
         <v>-407</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>10</v>
       </c>

--- a/calibration_sheet.xlsx
+++ b/calibration_sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeremyNoonan\Documents\github\massey_3545_hitch_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152410F-8917-4DEC-981A-C66E3DAEE5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A207BFDC-0B83-4225-9E30-359F9E5C5B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17023" yWindow="0" windowWidth="15891" windowHeight="20571" xr2:uid="{0D881AED-880D-4F73-AA28-7B0266F46ED7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="12V" sheetId="2" r:id="rId1"/>
+    <sheet name="Arduino Power Only" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,12 +59,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Position</t>
   </si>
   <si>
     <t>80 count average</t>
+  </si>
+  <si>
+    <t>Turn Count</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Delta</t>
   </si>
 </sst>
 </file>
@@ -414,11 +427,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E74BACA-BE8A-4105-B968-B3D22E4E2532}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>707</v>
+      </c>
+      <c r="C2">
+        <v>735</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <f>C2</f>
+        <v>735</v>
+      </c>
+      <c r="C3">
+        <v>767</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">C3-B3</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B15" si="1">C3</f>
+        <v>767</v>
+      </c>
+      <c r="C4">
+        <v>805</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+      <c r="C5">
+        <v>844</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>844</v>
+      </c>
+      <c r="C6">
+        <v>876</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>876</v>
+      </c>
+      <c r="C7">
+        <v>905</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>905</v>
+      </c>
+      <c r="C8">
+        <v>925</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>925</v>
+      </c>
+      <c r="C9">
+        <v>940</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>940</v>
+      </c>
+      <c r="C10">
+        <v>948</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>948</v>
+      </c>
+      <c r="C11">
+        <v>955</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>-2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>-3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F389ED4-3E5B-4518-8BA6-57C13E54178F}">
   <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -443,8 +683,8 @@
         <v>301</v>
       </c>
       <c r="C2" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.UNIQUE(B2:C107157)</f>
-        <v>0</v>
+        <f t="array" ref="C2:C114">_xlfn.UNIQUE(B2:B157)</f>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -454,6 +694,9 @@
       <c r="B3">
         <v>301</v>
       </c>
+      <c r="C3">
+        <v>302</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -462,6 +705,9 @@
       <c r="B4">
         <v>302</v>
       </c>
+      <c r="C4">
+        <v>303</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -470,6 +716,9 @@
       <c r="B5">
         <v>303</v>
       </c>
+      <c r="C5">
+        <v>304</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -478,6 +727,9 @@
       <c r="B6">
         <v>304</v>
       </c>
+      <c r="C6">
+        <v>305</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -486,6 +738,9 @@
       <c r="B7">
         <v>305</v>
       </c>
+      <c r="C7">
+        <v>306</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -494,6 +749,9 @@
       <c r="B8">
         <v>306</v>
       </c>
+      <c r="C8">
+        <v>307</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -502,6 +760,9 @@
       <c r="B9">
         <v>307</v>
       </c>
+      <c r="C9">
+        <v>308</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -510,6 +771,9 @@
       <c r="B10">
         <v>307</v>
       </c>
+      <c r="C10">
+        <v>309</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -518,6 +782,9 @@
       <c r="B11">
         <v>308</v>
       </c>
+      <c r="C11">
+        <v>310</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -526,6 +793,9 @@
       <c r="B12">
         <v>309</v>
       </c>
+      <c r="C12">
+        <v>311</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -534,6 +804,9 @@
       <c r="B13">
         <v>310</v>
       </c>
+      <c r="C13">
+        <v>312</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -542,6 +815,9 @@
       <c r="B14">
         <v>311</v>
       </c>
+      <c r="C14">
+        <v>313</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -550,6 +826,9 @@
       <c r="B15">
         <v>312</v>
       </c>
+      <c r="C15">
+        <v>314</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -558,792 +837,1089 @@
       <c r="B16">
         <v>313</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>105</v>
       </c>
       <c r="B17">
         <v>314</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>104</v>
       </c>
       <c r="B18">
         <v>316</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>103</v>
       </c>
       <c r="B19">
         <v>316</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>102</v>
       </c>
       <c r="B20">
         <v>318</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>101</v>
       </c>
       <c r="B21">
         <v>318</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>100</v>
       </c>
       <c r="B22">
         <v>319</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>99</v>
       </c>
       <c r="B23">
         <v>320</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>98</v>
       </c>
       <c r="B24">
         <v>321</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>97</v>
       </c>
       <c r="B25">
         <v>322</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>96</v>
       </c>
       <c r="B26">
         <v>323</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>95</v>
       </c>
       <c r="B27">
         <v>324</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>94</v>
       </c>
       <c r="B28">
         <v>326</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>93</v>
       </c>
       <c r="B29">
         <v>327</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>92</v>
       </c>
       <c r="B30">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>91</v>
       </c>
       <c r="B31">
         <v>330</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>90</v>
       </c>
       <c r="B32">
         <v>331</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>89</v>
       </c>
       <c r="B33">
         <v>332</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>88</v>
       </c>
       <c r="B34">
         <v>333</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C34">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>87</v>
       </c>
       <c r="B35">
         <v>334</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>86</v>
       </c>
       <c r="B36">
         <v>335</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C36">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>85</v>
       </c>
       <c r="B37">
         <v>336</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C37">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>84</v>
       </c>
       <c r="B38">
         <v>337</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C38">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>83</v>
       </c>
       <c r="B39">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C39">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>82</v>
       </c>
       <c r="B40">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C40">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>81</v>
       </c>
       <c r="B41">
         <v>342</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C41">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>80</v>
       </c>
       <c r="B42">
         <v>343</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C42">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>79</v>
       </c>
       <c r="B43">
         <v>344</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C43">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>78</v>
       </c>
       <c r="B44">
         <v>346</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C44">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>77</v>
       </c>
       <c r="B45">
         <v>347</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>76</v>
       </c>
       <c r="B46">
         <v>348</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C46">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>75</v>
       </c>
       <c r="B47">
         <v>349</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C47">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>74</v>
       </c>
       <c r="B48">
         <v>350</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C48">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>73</v>
       </c>
       <c r="B49">
         <v>351</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C49">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>72</v>
       </c>
       <c r="B50">
         <v>353</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C50">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>71</v>
       </c>
       <c r="B51">
         <v>354</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C51">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>70</v>
       </c>
       <c r="B52">
         <v>356</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C52">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>69</v>
       </c>
       <c r="B53">
         <v>357</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C53">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>68</v>
       </c>
       <c r="B54">
         <v>359</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C54">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>67</v>
       </c>
       <c r="B55">
         <v>360</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C55">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>66</v>
       </c>
       <c r="B56">
         <v>361</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C56">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>65</v>
       </c>
       <c r="B57">
         <v>362</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C57">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>64</v>
       </c>
       <c r="B58">
         <v>363</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C58">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>63</v>
       </c>
       <c r="B59">
         <v>364</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C59">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>62</v>
       </c>
       <c r="B60">
         <v>365</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C60">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61">
         <v>366</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C61">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <v>368</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C62">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63">
         <v>369</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C63">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>58</v>
       </c>
       <c r="B64">
         <v>371</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C64">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>57</v>
       </c>
       <c r="B65">
         <v>372</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C65">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>56</v>
       </c>
       <c r="B66">
         <v>373</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C66">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>55</v>
       </c>
       <c r="B67">
         <v>374</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C67">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>54</v>
       </c>
       <c r="B68">
         <v>375</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C68">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>53</v>
       </c>
       <c r="B69">
         <v>376</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C69">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>52</v>
       </c>
       <c r="B70">
         <v>377</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C70">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>51</v>
       </c>
       <c r="B71">
         <v>379</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C71">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>50</v>
       </c>
       <c r="B72">
         <v>380</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C72">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>49</v>
       </c>
       <c r="B73">
         <v>381</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C73">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>48</v>
       </c>
       <c r="B74">
         <v>382</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C74">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>47</v>
       </c>
       <c r="B75">
         <v>383</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C75">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>46</v>
       </c>
       <c r="B76">
         <v>385</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C76">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>45</v>
       </c>
       <c r="B77">
         <v>386</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C77">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>44</v>
       </c>
       <c r="B78">
         <v>387</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C78">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>43</v>
       </c>
       <c r="B79">
         <v>388</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C79">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>42</v>
       </c>
       <c r="B80">
         <v>389</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C80">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>41</v>
       </c>
       <c r="B81">
         <v>389</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>40</v>
       </c>
       <c r="B82">
         <v>390</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C82">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>39</v>
       </c>
       <c r="B83">
         <v>391</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C83">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>38</v>
       </c>
       <c r="B84">
         <v>392</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C84">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>37</v>
       </c>
       <c r="B85">
         <v>393</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C85">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>36</v>
       </c>
       <c r="B86">
         <v>394</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C86">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>35</v>
       </c>
       <c r="B87">
         <v>395</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C87">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>34</v>
       </c>
       <c r="B88">
         <v>396</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C88">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>33</v>
       </c>
       <c r="B89">
         <v>397</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C89">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>32</v>
       </c>
       <c r="B90">
         <v>398</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C90">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>31</v>
       </c>
       <c r="B91">
         <v>399</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C91">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>30</v>
       </c>
       <c r="B92">
         <v>400</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C92">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>29</v>
       </c>
       <c r="B93">
         <v>400</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C93">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>28</v>
       </c>
       <c r="B94">
         <v>401</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C94">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>27</v>
       </c>
       <c r="B95">
         <v>402</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C95">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>26</v>
       </c>
       <c r="B96">
         <v>402</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C96">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>25</v>
       </c>
       <c r="B97">
         <v>403</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C97">
+        <v>-409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>24</v>
       </c>
       <c r="B98">
         <v>404</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C98">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>23</v>
       </c>
       <c r="B99">
         <v>404</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C99">
+        <v>-407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>22</v>
       </c>
       <c r="B100">
         <v>405</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C100">
+        <v>-406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>21</v>
       </c>
       <c r="B101">
         <v>406</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C101">
+        <v>-405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>20</v>
       </c>
       <c r="B102">
         <v>407</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C102">
+        <v>-404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>19</v>
       </c>
       <c r="B103">
         <v>407</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C103">
+        <v>-403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>18</v>
       </c>
       <c r="B104">
         <v>408</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C104">
+        <v>-402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>17</v>
       </c>
       <c r="B105">
         <v>408</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C105">
+        <v>-401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>16</v>
       </c>
       <c r="B106">
         <v>409</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C106">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>15</v>
       </c>
       <c r="B107">
         <v>409</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C107">
+        <v>-399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>14</v>
       </c>
       <c r="B108">
         <v>-409</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C108">
+        <v>-398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>13</v>
       </c>
       <c r="B109">
         <v>-408</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C109">
+        <v>-397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>12</v>
       </c>
       <c r="B110">
         <v>-407</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C110">
+        <v>-396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>11</v>
       </c>
       <c r="B111">
         <v>-407</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C111">
+        <v>-395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>10</v>
       </c>
       <c r="B112">
         <v>-406</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C112">
+        <v>-394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>9</v>
       </c>
       <c r="B113">
         <v>-406</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C113">
+        <v>-393</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>8</v>
       </c>
       <c r="B114">
         <v>-405</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C114">
+        <v>-392</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>7</v>
       </c>
@@ -1351,7 +1927,7 @@
         <v>-405</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>6</v>
       </c>
@@ -1359,7 +1935,7 @@
         <v>-404</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>5</v>
       </c>
@@ -1367,7 +1943,7 @@
         <v>-404</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>4</v>
       </c>
@@ -1375,7 +1951,7 @@
         <v>-404</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>3</v>
       </c>
@@ -1383,7 +1959,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>2</v>
       </c>
@@ -1391,7 +1967,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>1</v>
       </c>
@@ -1399,7 +1975,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>0</v>
       </c>
@@ -1407,7 +1983,7 @@
         <v>-402</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>-1</v>
       </c>
@@ -1415,7 +1991,7 @@
         <v>-402</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>-2</v>
       </c>
@@ -1423,7 +1999,7 @@
         <v>-401</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>-3</v>
       </c>
@@ -1431,7 +2007,7 @@
         <v>-401</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>-4</v>
       </c>
@@ -1439,7 +2015,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>-5</v>
       </c>
@@ -1447,7 +2023,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>-6</v>
       </c>
